--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H2">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I2">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J2">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N2">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O2">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P2">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q2">
-        <v>319.921660964966</v>
+        <v>327.4150800490778</v>
       </c>
       <c r="R2">
-        <v>319.921660964966</v>
+        <v>1309.660320196311</v>
       </c>
       <c r="S2">
-        <v>0.112470125607778</v>
+        <v>0.1093229553858756</v>
       </c>
       <c r="T2">
-        <v>0.112470125607778</v>
+        <v>0.07961387090016012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H3">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I3">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J3">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N3">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O3">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P3">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q3">
-        <v>0.07678991667363246</v>
+        <v>0.1021921457705</v>
       </c>
       <c r="R3">
-        <v>0.07678991667363246</v>
+        <v>0.6131528746230001</v>
       </c>
       <c r="S3">
-        <v>2.699589501893722E-05</v>
+        <v>3.412166413098826E-05</v>
       </c>
       <c r="T3">
-        <v>2.699589501893722E-05</v>
+        <v>3.727338535764786E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H4">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I4">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J4">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N4">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O4">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P4">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q4">
-        <v>0.05038419320313819</v>
+        <v>0.08541285865250001</v>
       </c>
       <c r="R4">
-        <v>0.05038419320313819</v>
+        <v>0.512477151915</v>
       </c>
       <c r="S4">
-        <v>1.771282544955297E-05</v>
+        <v>2.851910832710484E-05</v>
       </c>
       <c r="T4">
-        <v>1.771282544955297E-05</v>
+        <v>3.11533373827244E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H5">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I5">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J5">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N5">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O5">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P5">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q5">
-        <v>0.1523005961853338</v>
+        <v>0.169570382735</v>
       </c>
       <c r="R5">
-        <v>0.1523005961853338</v>
+        <v>1.01742229641</v>
       </c>
       <c r="S5">
-        <v>5.354206755315566E-05</v>
+        <v>5.661906404471508E-05</v>
       </c>
       <c r="T5">
-        <v>5.354206755315566E-05</v>
+        <v>6.184880621960706E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H6">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I6">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J6">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N6">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O6">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P6">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q6">
-        <v>162.4810429574931</v>
+        <v>169.218447051043</v>
       </c>
       <c r="R6">
-        <v>162.4810429574931</v>
+        <v>1015.310682306258</v>
       </c>
       <c r="S6">
-        <v>0.05712105662114952</v>
+        <v>0.05650155373007056</v>
       </c>
       <c r="T6">
-        <v>0.05712105662114952</v>
+        <v>0.06172044181087162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H7">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I7">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J7">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N7">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O7">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P7">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q7">
-        <v>0.506745733427024</v>
+        <v>0.5684505688207501</v>
       </c>
       <c r="R7">
-        <v>0.506745733427024</v>
+        <v>2.273802275283</v>
       </c>
       <c r="S7">
-        <v>0.0001781491009950222</v>
+        <v>0.000189804013196189</v>
       </c>
       <c r="T7">
-        <v>0.0001781491009950222</v>
+        <v>0.0001382237806286566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H8">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I8">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J8">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N8">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O8">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P8">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q8">
-        <v>531.9263269533448</v>
+        <v>580.9677683153792</v>
       </c>
       <c r="R8">
-        <v>531.9263269533448</v>
+        <v>3485.806609892275</v>
       </c>
       <c r="S8">
-        <v>0.1870014697538035</v>
+        <v>0.1939834701769192</v>
       </c>
       <c r="T8">
-        <v>0.1870014697538035</v>
+        <v>0.2119011724973769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H9">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I9">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J9">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N9">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O9">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P9">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q9">
-        <v>0.1276768137551391</v>
+        <v>0.1813305082305556</v>
       </c>
       <c r="R9">
-        <v>0.1276768137551391</v>
+        <v>1.631974574075</v>
       </c>
       <c r="S9">
-        <v>4.488544863429516E-05</v>
+        <v>6.054573619032978E-05</v>
       </c>
       <c r="T9">
-        <v>4.488544863429516E-05</v>
+        <v>9.920726088217695E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H10">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I10">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J10">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N10">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O10">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P10">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q10">
-        <v>0.08377262966882343</v>
+        <v>0.1515572155972222</v>
       </c>
       <c r="R10">
-        <v>0.08377262966882343</v>
+        <v>1.364014940375</v>
       </c>
       <c r="S10">
-        <v>2.945070412840291E-05</v>
+        <v>5.060451924407113E-05</v>
       </c>
       <c r="T10">
-        <v>2.945070412840291E-05</v>
+        <v>8.291807249121443E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H11">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I11">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J11">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N11">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O11">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P11">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q11">
-        <v>0.2532266695456447</v>
+        <v>0.3008869561388889</v>
       </c>
       <c r="R11">
-        <v>0.2532266695456447</v>
+        <v>2.70798260525</v>
       </c>
       <c r="S11">
-        <v>8.902315412196107E-05</v>
+        <v>0.0001004652909610426</v>
       </c>
       <c r="T11">
-        <v>8.902315412196107E-05</v>
+        <v>0.0001646174769209901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H12">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I12">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J12">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N12">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O12">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P12">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q12">
-        <v>270.1534623171155</v>
+        <v>300.2624788274945</v>
       </c>
       <c r="R12">
-        <v>270.1534623171155</v>
+        <v>2702.36230944745</v>
       </c>
       <c r="S12">
-        <v>0.09497385625135715</v>
+        <v>0.1002567797793254</v>
       </c>
       <c r="T12">
-        <v>0.09497385625135715</v>
+        <v>0.1642758207697387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H13">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I13">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J13">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N13">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O13">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P13">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q13">
-        <v>0.842554379931885</v>
+        <v>1.008662943429167</v>
       </c>
       <c r="R13">
-        <v>0.842554379931885</v>
+        <v>6.051977660575001</v>
       </c>
       <c r="S13">
-        <v>0.0002962043790861033</v>
+        <v>0.0003367896614516468</v>
       </c>
       <c r="T13">
-        <v>0.0002962043790861033</v>
+        <v>0.0003678979661592318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H14">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I14">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J14">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N14">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O14">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P14">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q14">
-        <v>82.5568690259371</v>
+        <v>4.550781126403334</v>
       </c>
       <c r="R14">
-        <v>82.5568690259371</v>
+        <v>27.30468675842</v>
       </c>
       <c r="S14">
-        <v>0.02902329714444945</v>
+        <v>0.00151949275512326</v>
       </c>
       <c r="T14">
-        <v>0.02902329714444945</v>
+        <v>0.001659843986285173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H15">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I15">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J15">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N15">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O15">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P15">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q15">
-        <v>0.01981589828652437</v>
+        <v>0.001420380784444445</v>
       </c>
       <c r="R15">
-        <v>0.01981589828652437</v>
+        <v>0.01278342706</v>
       </c>
       <c r="S15">
-        <v>6.966382215552478E-06</v>
+        <v>4.742610667336985E-07</v>
       </c>
       <c r="T15">
-        <v>6.966382215552478E-06</v>
+        <v>7.771008221917418E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H16">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I16">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J16">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N16">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O16">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P16">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q16">
-        <v>0.01300181183950685</v>
+        <v>0.001187163477777778</v>
       </c>
       <c r="R16">
-        <v>0.01300181183950685</v>
+        <v>0.0106844713</v>
       </c>
       <c r="S16">
-        <v>4.570854647063631E-06</v>
+        <v>3.963904774862137E-07</v>
       </c>
       <c r="T16">
-        <v>4.570854647063631E-06</v>
+        <v>6.495059104998772E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H17">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I17">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J17">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N17">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O17">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P17">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q17">
-        <v>0.03930168508728028</v>
+        <v>0.002356878911111111</v>
       </c>
       <c r="R17">
-        <v>0.03930168508728028</v>
+        <v>0.0212119102</v>
       </c>
       <c r="S17">
-        <v>1.381671201953344E-05</v>
+        <v>7.869551030169072E-07</v>
       </c>
       <c r="T17">
-        <v>1.381671201953344E-05</v>
+        <v>1.289465866962704E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H18">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I18">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J18">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N18">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O18">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P18">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q18">
-        <v>41.92878388471593</v>
+        <v>2.351987315195556</v>
       </c>
       <c r="R18">
-        <v>41.92878388471593</v>
+        <v>21.16788583676</v>
       </c>
       <c r="S18">
-        <v>0.01474028227995412</v>
+        <v>0.0007853218131819924</v>
       </c>
       <c r="T18">
-        <v>0.01474028227995412</v>
+        <v>0.001286789638693892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H19">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I19">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J19">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N19">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O19">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P19">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q19">
-        <v>0.1307674541880069</v>
+        <v>0.007900962043333334</v>
       </c>
       <c r="R19">
-        <v>0.1307674541880069</v>
+        <v>0.04740577226000001</v>
       </c>
       <c r="S19">
-        <v>4.597197937011546E-05</v>
+        <v>2.638108546617198E-06</v>
       </c>
       <c r="T19">
-        <v>4.597197937011546E-05</v>
+        <v>2.88178314210841E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H20">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I20">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J20">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N20">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O20">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P20">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q20">
-        <v>948.9542688884538</v>
+        <v>97.30801890489151</v>
       </c>
       <c r="R20">
-        <v>948.9542688884538</v>
+        <v>583.848113429349</v>
       </c>
       <c r="S20">
-        <v>0.3336098140275948</v>
+        <v>0.03249086819041081</v>
       </c>
       <c r="T20">
-        <v>0.3336098140275948</v>
+        <v>0.03549195742671563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H21">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I21">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J21">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N21">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O21">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P21">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q21">
-        <v>0.2277748840614204</v>
+        <v>0.03037158597300001</v>
       </c>
       <c r="R21">
-        <v>0.2277748840614204</v>
+        <v>0.273344273757</v>
       </c>
       <c r="S21">
-        <v>8.007544641839801E-05</v>
+        <v>1.014098537497682E-05</v>
       </c>
       <c r="T21">
-        <v>8.007544641839801E-05</v>
+        <v>1.661651909781142E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H22">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I22">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J22">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N22">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O22">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P22">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q22">
-        <v>0.1494500093566795</v>
+        <v>0.025384768665</v>
       </c>
       <c r="R22">
-        <v>0.1494500093566795</v>
+        <v>0.228462917985</v>
       </c>
       <c r="S22">
-        <v>5.253992891175326E-05</v>
+        <v>8.475901390456995E-06</v>
       </c>
       <c r="T22">
-        <v>5.253992891175326E-05</v>
+        <v>1.38881945016134E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H23">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I23">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J23">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N23">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O23">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P23">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q23">
-        <v>0.4517552843042907</v>
+        <v>0.05039645091000001</v>
       </c>
       <c r="R23">
-        <v>0.4517552843042907</v>
+        <v>0.4535680581900001</v>
       </c>
       <c r="S23">
-        <v>0.000158816922294127</v>
+        <v>1.682723029621774E-05</v>
       </c>
       <c r="T23">
-        <v>0.000158816922294127</v>
+        <v>2.757227066615428E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H24">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I24">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J24">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N24">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O24">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P24">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q24">
-        <v>481.9526094697479</v>
+        <v>50.29185534835801</v>
       </c>
       <c r="R24">
-        <v>481.9526094697479</v>
+        <v>452.6266981352221</v>
       </c>
       <c r="S24">
-        <v>0.1694329491806272</v>
+        <v>0.01679230613842625</v>
       </c>
       <c r="T24">
-        <v>0.1694329491806272</v>
+        <v>0.02751504566153596</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4702770000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.410831</v>
+      </c>
+      <c r="I25">
+        <v>0.04937502834767095</v>
+      </c>
+      <c r="J25">
+        <v>0.06312670039673911</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3592435</v>
+      </c>
+      <c r="N25">
+        <v>0.7184870000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.001142478367304113</v>
+      </c>
+      <c r="P25">
+        <v>0.0009761372578429328</v>
+      </c>
+      <c r="Q25">
+        <v>0.1689439554495001</v>
+      </c>
+      <c r="R25">
+        <v>1.013663732697</v>
+      </c>
+      <c r="S25">
+        <v>5.640990177224141E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.162032422194529E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.6422255</v>
+      </c>
+      <c r="H26">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J26">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>206.9163895</v>
+      </c>
+      <c r="N26">
+        <v>413.832779</v>
+      </c>
+      <c r="O26">
+        <v>0.6580425222569705</v>
+      </c>
+      <c r="P26">
+        <v>0.5622336856457812</v>
+      </c>
+      <c r="Q26">
+        <v>960.5525397048324</v>
+      </c>
+      <c r="R26">
+        <v>3842.21015881933</v>
+      </c>
+      <c r="S26">
+        <v>0.3207257357486415</v>
+      </c>
+      <c r="T26">
+        <v>0.2335668408352435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.6422255</v>
+      </c>
+      <c r="H27">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J27">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.06458233333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.193747</v>
+      </c>
+      <c r="O27">
+        <v>0.0002053869276503449</v>
+      </c>
+      <c r="P27">
+        <v>0.00026322489522468</v>
+      </c>
+      <c r="Q27">
+        <v>0.2998057546495</v>
+      </c>
+      <c r="R27">
+        <v>1.798834527897</v>
+      </c>
+      <c r="S27">
+        <v>0.0001001042808873163</v>
+      </c>
+      <c r="T27">
+        <v>0.0001093506290648521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.6422255</v>
+      </c>
+      <c r="H28">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J28">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.05397833333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.161935</v>
+      </c>
+      <c r="O28">
+        <v>0.0001716637270722055</v>
+      </c>
+      <c r="P28">
+        <v>0.000220005075733862</v>
+      </c>
+      <c r="Q28">
+        <v>0.2505795954475</v>
+      </c>
+      <c r="R28">
+        <v>1.503477572685</v>
+      </c>
+      <c r="S28">
+        <v>8.366780763308629E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.139596544780989E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.6422255</v>
+      </c>
+      <c r="H29">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J29">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1071633333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.32149</v>
+      </c>
+      <c r="O29">
+        <v>0.00034080446856111</v>
+      </c>
+      <c r="P29">
+        <v>0.0004367766807526433</v>
+      </c>
+      <c r="Q29">
+        <v>0.497476358665</v>
+      </c>
+      <c r="R29">
+        <v>2.98485815199</v>
+      </c>
+      <c r="S29">
+        <v>0.0001661059281561177</v>
+      </c>
+      <c r="T29">
+        <v>0.0001814486610789292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="H25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="I25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="J25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.326152852037201</v>
-      </c>
-      <c r="N25">
-        <v>0.326152852037201</v>
-      </c>
-      <c r="O25">
-        <v>0.00104875279187366</v>
-      </c>
-      <c r="P25">
-        <v>0.00104875279187366</v>
-      </c>
-      <c r="Q25">
-        <v>1.503113373211841</v>
-      </c>
-      <c r="R25">
-        <v>1.503113373211841</v>
-      </c>
-      <c r="S25">
-        <v>0.0005284273324224193</v>
-      </c>
-      <c r="T25">
-        <v>0.0005284273324224193</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.6422255</v>
+      </c>
+      <c r="H30">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J30">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>106.9409206666667</v>
+      </c>
+      <c r="N30">
+        <v>320.822762</v>
+      </c>
+      <c r="O30">
+        <v>0.3400971442524417</v>
+      </c>
+      <c r="P30">
+        <v>0.4358701704446648</v>
+      </c>
+      <c r="Q30">
+        <v>496.443868912277</v>
+      </c>
+      <c r="R30">
+        <v>2978.663213473662</v>
+      </c>
+      <c r="S30">
+        <v>0.1657611827914375</v>
+      </c>
+      <c r="T30">
+        <v>0.1810720725638246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.6422255</v>
+      </c>
+      <c r="H31">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J31">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3592435</v>
+      </c>
+      <c r="N31">
+        <v>0.7184870000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.001142478367304113</v>
+      </c>
+      <c r="P31">
+        <v>0.0009761372578429328</v>
+      </c>
+      <c r="Q31">
+        <v>1.66768933640925</v>
+      </c>
+      <c r="R31">
+        <v>6.670757345637002</v>
+      </c>
+      <c r="S31">
+        <v>0.0005568366823374188</v>
+      </c>
+      <c r="T31">
+        <v>0.0004055134036909908</v>
       </c>
     </row>
   </sheetData>
